--- a/Code/Results/Cases/Case_2_170/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_170/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9918081926886587</v>
+        <v>1.025748667024775</v>
       </c>
       <c r="D2">
-        <v>1.012001394554607</v>
+        <v>1.029894664102174</v>
       </c>
       <c r="E2">
-        <v>1.013093706231619</v>
+        <v>1.049995176591597</v>
       </c>
       <c r="F2">
-        <v>1.018291136048483</v>
+        <v>1.054727962127409</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04346728941435</v>
+        <v>1.032777525602488</v>
       </c>
       <c r="J2">
-        <v>1.014236710773938</v>
+        <v>1.030915954402657</v>
       </c>
       <c r="K2">
-        <v>1.023296025085695</v>
+        <v>1.032707250685951</v>
       </c>
       <c r="L2">
-        <v>1.024373589752707</v>
+        <v>1.052750685033849</v>
       </c>
       <c r="M2">
-        <v>1.029501394617994</v>
+        <v>1.05747037417289</v>
       </c>
       <c r="N2">
-        <v>1.008533739580488</v>
+        <v>1.014305742470162</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9973802113032588</v>
+        <v>1.026875634722425</v>
       </c>
       <c r="D3">
-        <v>1.016030215012079</v>
+        <v>1.030712288360634</v>
       </c>
       <c r="E3">
-        <v>1.018384749746465</v>
+        <v>1.051169488970474</v>
       </c>
       <c r="F3">
-        <v>1.023889451847893</v>
+        <v>1.055953782723888</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045180411786506</v>
+        <v>1.033027235030032</v>
       </c>
       <c r="J3">
-        <v>1.01794255007848</v>
+        <v>1.03168147338287</v>
       </c>
       <c r="K3">
-        <v>1.026462013931383</v>
+        <v>1.033333090759105</v>
       </c>
       <c r="L3">
-        <v>1.028787676648929</v>
+        <v>1.053736421677713</v>
       </c>
       <c r="M3">
-        <v>1.034225521759844</v>
+        <v>1.058508441888384</v>
       </c>
       <c r="N3">
-        <v>1.009783453448557</v>
+        <v>1.014561686930693</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.000894633773225</v>
+        <v>1.027604309608448</v>
       </c>
       <c r="D4">
-        <v>1.018572341729208</v>
+        <v>1.031240596846466</v>
       </c>
       <c r="E4">
-        <v>1.02173450244382</v>
+        <v>1.051929834866339</v>
       </c>
       <c r="F4">
-        <v>1.027430440668815</v>
+        <v>1.056747170747412</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046246116968161</v>
+        <v>1.03318681678612</v>
       </c>
       <c r="J4">
-        <v>1.020275482380087</v>
+        <v>1.032175756601925</v>
       </c>
       <c r="K4">
-        <v>1.028451665657137</v>
+        <v>1.03373665747303</v>
       </c>
       <c r="L4">
-        <v>1.031577501458851</v>
+        <v>1.054374171086916</v>
       </c>
       <c r="M4">
-        <v>1.037208703573592</v>
+        <v>1.059179775932418</v>
       </c>
       <c r="N4">
-        <v>1.010569936705917</v>
+        <v>1.01472686667787</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.002351245518855</v>
+        <v>1.027910514630509</v>
       </c>
       <c r="D5">
-        <v>1.019626135830131</v>
+        <v>1.031462518553196</v>
       </c>
       <c r="E5">
-        <v>1.023125825727121</v>
+        <v>1.052249602051823</v>
       </c>
       <c r="F5">
-        <v>1.028900411716072</v>
+        <v>1.057080760227404</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046684199444143</v>
+        <v>1.033253426934924</v>
       </c>
       <c r="J5">
-        <v>1.021241291993207</v>
+        <v>1.032383300433412</v>
       </c>
       <c r="K5">
-        <v>1.029274513093449</v>
+        <v>1.033905983574127</v>
       </c>
       <c r="L5">
-        <v>1.032735119885978</v>
+        <v>1.054642260831451</v>
       </c>
       <c r="M5">
-        <v>1.038445931764861</v>
+        <v>1.059461918373407</v>
       </c>
       <c r="N5">
-        <v>1.010895466959897</v>
+        <v>1.014796204629282</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.002594620647119</v>
+        <v>1.0279619202251</v>
       </c>
       <c r="D6">
-        <v>1.019802214417289</v>
+        <v>1.031499769681203</v>
       </c>
       <c r="E6">
-        <v>1.023358465060103</v>
+        <v>1.052303299307959</v>
       </c>
       <c r="F6">
-        <v>1.029146155775933</v>
+        <v>1.057136774287512</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046757181070832</v>
+        <v>1.03326458304193</v>
       </c>
       <c r="J6">
-        <v>1.02140259555802</v>
+        <v>1.03241813314791</v>
       </c>
       <c r="K6">
-        <v>1.029411889433663</v>
+        <v>1.033934394632577</v>
       </c>
       <c r="L6">
-        <v>1.03292861504932</v>
+        <v>1.05468727312879</v>
       </c>
       <c r="M6">
-        <v>1.038652697070291</v>
+        <v>1.059509286294703</v>
       </c>
       <c r="N6">
-        <v>1.010949830978769</v>
+        <v>1.014807840704758</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.000914177816963</v>
+        <v>1.027608401643584</v>
       </c>
       <c r="D7">
-        <v>1.018586480427029</v>
+        <v>1.031243562879069</v>
       </c>
       <c r="E7">
-        <v>1.021753158831504</v>
+        <v>1.051934107146966</v>
       </c>
       <c r="F7">
-        <v>1.027450154731962</v>
+        <v>1.056751627991679</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046252009313707</v>
+        <v>1.033187708712441</v>
       </c>
       <c r="J7">
-        <v>1.020288445567089</v>
+        <v>1.032178530805453</v>
       </c>
       <c r="K7">
-        <v>1.028462713378422</v>
+        <v>1.03373892132615</v>
       </c>
       <c r="L7">
-        <v>1.031593028577942</v>
+        <v>1.054377753392982</v>
       </c>
       <c r="M7">
-        <v>1.037225300956666</v>
+        <v>1.059183546271701</v>
       </c>
       <c r="N7">
-        <v>1.010574306271108</v>
+        <v>1.014727793581923</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9937107231325624</v>
+        <v>1.026129645483037</v>
       </c>
       <c r="D8">
-        <v>1.013376738616977</v>
+        <v>1.030171139245651</v>
       </c>
       <c r="E8">
-        <v>1.014897627518616</v>
+        <v>1.05039194074173</v>
       </c>
       <c r="F8">
-        <v>1.020200516053893</v>
+        <v>1.055142193249132</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044055299958205</v>
+        <v>1.032862329585144</v>
       </c>
       <c r="J8">
-        <v>1.015502950360003</v>
+        <v>1.031174884731215</v>
       </c>
       <c r="K8">
-        <v>1.024378511552877</v>
+        <v>1.032919045019715</v>
       </c>
       <c r="L8">
-        <v>1.025879512505891</v>
+        <v>1.053083838187737</v>
       </c>
       <c r="M8">
-        <v>1.031113637843786</v>
+        <v>1.05782127025483</v>
       </c>
       <c r="N8">
-        <v>1.008960799686274</v>
+        <v>1.01439232993572</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9802741114122899</v>
+        <v>1.023519622051221</v>
       </c>
       <c r="D9">
-        <v>1.003671492941354</v>
+        <v>1.028275646822027</v>
       </c>
       <c r="E9">
-        <v>1.002213522077102</v>
+        <v>1.0476781277619</v>
       </c>
       <c r="F9">
-        <v>1.006760442649889</v>
+        <v>1.052307640077705</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039841750327087</v>
+        <v>1.032273672873009</v>
       </c>
       <c r="J9">
-        <v>1.006543201394068</v>
+        <v>1.02939819418326</v>
       </c>
       <c r="K9">
-        <v>1.016705282269839</v>
+        <v>1.031463630053278</v>
       </c>
       <c r="L9">
-        <v>1.015270788226118</v>
+        <v>1.050803074751453</v>
       </c>
       <c r="M9">
-        <v>1.01974478041896</v>
+        <v>1.055417922092529</v>
       </c>
       <c r="N9">
-        <v>1.00593817838412</v>
+        <v>1.013797873507461</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9707466126829473</v>
+        <v>1.02177664449283</v>
       </c>
       <c r="D10">
-        <v>0.9968045162419124</v>
+        <v>1.02700810791891</v>
       </c>
       <c r="E10">
-        <v>0.9932941446560729</v>
+        <v>1.045871320727614</v>
       </c>
       <c r="F10">
-        <v>0.9972905557872463</v>
+        <v>1.050418848943659</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036779642857938</v>
+        <v>1.031870943924535</v>
       </c>
       <c r="J10">
-        <v>1.000170949754636</v>
+        <v>1.028208218574993</v>
       </c>
       <c r="K10">
-        <v>1.011231706822343</v>
+        <v>1.030486144125803</v>
       </c>
       <c r="L10">
-        <v>1.007785540226704</v>
+        <v>1.049282017056054</v>
       </c>
       <c r="M10">
-        <v>1.011708903014114</v>
+        <v>1.053813709511066</v>
       </c>
       <c r="N10">
-        <v>1.003787746333825</v>
+        <v>1.013399321658474</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9664683721850261</v>
+        <v>1.021021191636198</v>
       </c>
       <c r="D11">
-        <v>0.9937259740010633</v>
+        <v>1.026458325535395</v>
       </c>
       <c r="E11">
-        <v>0.9893077569540212</v>
+        <v>1.045089505774476</v>
       </c>
       <c r="F11">
-        <v>0.9930534442888289</v>
+        <v>1.049601178475678</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035388009169122</v>
+        <v>1.031694114868636</v>
       </c>
       <c r="J11">
-        <v>0.9973058417815365</v>
+        <v>1.0276916271992</v>
       </c>
       <c r="K11">
-        <v>1.0087671871783</v>
+        <v>1.030061165873886</v>
       </c>
       <c r="L11">
-        <v>1.004434170091324</v>
+        <v>1.048623236890628</v>
       </c>
       <c r="M11">
-        <v>1.00810756233949</v>
+        <v>1.053118581870441</v>
       </c>
       <c r="N11">
-        <v>1.002820794994768</v>
+        <v>1.013226208445077</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9648546207976126</v>
+        <v>1.020740470828007</v>
       </c>
       <c r="D12">
-        <v>0.9925656417045126</v>
+        <v>1.026253971700521</v>
       </c>
       <c r="E12">
-        <v>0.9878070178736633</v>
+        <v>1.044799185105279</v>
       </c>
       <c r="F12">
-        <v>0.991457594651196</v>
+        <v>1.049297485828632</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034860682374921</v>
+        <v>1.031628065118462</v>
       </c>
       <c r="J12">
-        <v>0.9962246447522541</v>
+        <v>1.027499542202599</v>
       </c>
       <c r="K12">
-        <v>1.007836671871154</v>
+        <v>1.029903050917875</v>
       </c>
       <c r="L12">
-        <v>1.003171604654103</v>
+        <v>1.048378512340255</v>
       </c>
       <c r="M12">
-        <v>1.006750304243849</v>
+        <v>1.052860304946288</v>
       </c>
       <c r="N12">
-        <v>1.002455898255158</v>
+        <v>1.013161825436644</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9652019187741731</v>
+        <v>1.020800691493811</v>
       </c>
       <c r="D13">
-        <v>0.9928153159591866</v>
+        <v>1.026297812643427</v>
       </c>
       <c r="E13">
-        <v>0.9881298604127915</v>
+        <v>1.044861456269848</v>
       </c>
       <c r="F13">
-        <v>0.9918009305035608</v>
+        <v>1.049362627758211</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034974276133444</v>
+        <v>1.031642249651567</v>
       </c>
       <c r="J13">
-        <v>0.9964573511899476</v>
+        <v>1.027540754151599</v>
       </c>
       <c r="K13">
-        <v>1.008036968432648</v>
+        <v>1.029936978848408</v>
       </c>
       <c r="L13">
-        <v>1.003443250787726</v>
+        <v>1.048431007707721</v>
       </c>
       <c r="M13">
-        <v>1.007042347502085</v>
+        <v>1.052915709667018</v>
       </c>
       <c r="N13">
-        <v>1.002534435023825</v>
+        <v>1.013175639482861</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9663354915193708</v>
+        <v>1.020997989462572</v>
       </c>
       <c r="D14">
-        <v>0.993630410119563</v>
+        <v>1.026441436446227</v>
       </c>
       <c r="E14">
-        <v>0.9891841220030788</v>
+        <v>1.045065506150182</v>
       </c>
       <c r="F14">
-        <v>0.9929219886421151</v>
+        <v>1.049576074614873</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035344635868564</v>
+        <v>1.031688662675479</v>
       </c>
       <c r="J14">
-        <v>0.9972168223428591</v>
+        <v>1.027675753478543</v>
       </c>
       <c r="K14">
-        <v>1.008690583668318</v>
+        <v>1.030048101331834</v>
       </c>
       <c r="L14">
-        <v>1.004330174558677</v>
+        <v>1.048603008386099</v>
       </c>
       <c r="M14">
-        <v>1.007995777730779</v>
+        <v>1.053097234169579</v>
       </c>
       <c r="N14">
-        <v>1.002790751504136</v>
+        <v>1.013220888180605</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9670306076737856</v>
+        <v>1.021119536354386</v>
       </c>
       <c r="D15">
-        <v>0.994130354500034</v>
+        <v>1.026529909220954</v>
       </c>
       <c r="E15">
-        <v>0.9898309923225511</v>
+        <v>1.045191238597897</v>
       </c>
       <c r="F15">
-        <v>0.9936097481127716</v>
+        <v>1.0497075897362</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035571430060823</v>
+        <v>1.031717210557219</v>
       </c>
       <c r="J15">
-        <v>0.9976824756610443</v>
+        <v>1.027758904492012</v>
       </c>
       <c r="K15">
-        <v>1.009091270684969</v>
+        <v>1.030116533207276</v>
       </c>
       <c r="L15">
-        <v>1.004874253319471</v>
+        <v>1.048708980423312</v>
       </c>
       <c r="M15">
-        <v>1.00858058575715</v>
+        <v>1.053209067348229</v>
       </c>
       <c r="N15">
-        <v>1.002947906520772</v>
+        <v>1.013248756647928</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.971027187789294</v>
+        <v>1.021826765816939</v>
       </c>
       <c r="D16">
-        <v>0.9970065285159438</v>
+        <v>1.027044575535017</v>
       </c>
       <c r="E16">
-        <v>0.9935559779598272</v>
+        <v>1.045923218546893</v>
       </c>
       <c r="F16">
-        <v>0.9975687582124391</v>
+        <v>1.050473118862571</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036870571535895</v>
+        <v>1.031882627955581</v>
       </c>
       <c r="J16">
-        <v>1.000358778458499</v>
+        <v>1.028242475058658</v>
       </c>
       <c r="K16">
-        <v>1.011393204813369</v>
+        <v>1.030514312231528</v>
       </c>
       <c r="L16">
-        <v>1.008005541093373</v>
+        <v>1.049325734800516</v>
       </c>
       <c r="M16">
-        <v>1.011945241390845</v>
+        <v>1.053859832328346</v>
       </c>
       <c r="N16">
-        <v>1.003851136366801</v>
+        <v>1.013410799261199</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9734921063798677</v>
+        <v>1.022270194773246</v>
       </c>
       <c r="D17">
-        <v>0.9987818381390101</v>
+        <v>1.027367162863909</v>
       </c>
       <c r="E17">
-        <v>0.9958583850642715</v>
+        <v>1.046382514874395</v>
       </c>
       <c r="F17">
-        <v>1.000014571862415</v>
+        <v>1.050953364303269</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037667528865432</v>
+        <v>1.031985735200354</v>
       </c>
       <c r="J17">
-        <v>1.002008487125533</v>
+        <v>1.028545450881064</v>
       </c>
       <c r="K17">
-        <v>1.012811259910701</v>
+        <v>1.030763367456859</v>
       </c>
       <c r="L17">
-        <v>1.009939423584371</v>
+        <v>1.049712566802319</v>
       </c>
       <c r="M17">
-        <v>1.014022345586005</v>
+        <v>1.054267906960009</v>
       </c>
       <c r="N17">
-        <v>1.004407887406867</v>
+        <v>1.013512300175492</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9749152325924831</v>
+        <v>1.022528768881379</v>
       </c>
       <c r="D18">
-        <v>0.9998072807953892</v>
+        <v>1.027555232929695</v>
       </c>
       <c r="E18">
-        <v>0.9971894506505229</v>
+        <v>1.04665046728594</v>
       </c>
       <c r="F18">
-        <v>1.001428101608103</v>
+        <v>1.051233501655056</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038126078414508</v>
+        <v>1.032045640045894</v>
       </c>
       <c r="J18">
-        <v>1.002960595097382</v>
+        <v>1.028722043866996</v>
       </c>
       <c r="K18">
-        <v>1.013629341653178</v>
+        <v>1.030908471206584</v>
       </c>
       <c r="L18">
-        <v>1.011056874833637</v>
+        <v>1.049938184779075</v>
       </c>
       <c r="M18">
-        <v>1.015222229606531</v>
+        <v>1.054505882521568</v>
       </c>
       <c r="N18">
-        <v>1.004729201970619</v>
+        <v>1.013571452086743</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9753980503256309</v>
+        <v>1.022616924072618</v>
       </c>
       <c r="D19">
-        <v>1.000155252858599</v>
+        <v>1.027619344768335</v>
       </c>
       <c r="E19">
-        <v>0.9976413319850737</v>
+        <v>1.046741841109368</v>
       </c>
       <c r="F19">
-        <v>1.001907904123604</v>
+        <v>1.051329024411866</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038281378533495</v>
+        <v>1.032066026051222</v>
       </c>
       <c r="J19">
-        <v>1.00328355012877</v>
+        <v>1.028782235885144</v>
       </c>
       <c r="K19">
-        <v>1.013906777930595</v>
+        <v>1.030957919706844</v>
       </c>
       <c r="L19">
-        <v>1.011436140911676</v>
+        <v>1.050015112247455</v>
       </c>
       <c r="M19">
-        <v>1.015629418639511</v>
+        <v>1.054587018032483</v>
       </c>
       <c r="N19">
-        <v>1.004838190410553</v>
+        <v>1.013591612572846</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9732291676216627</v>
+        <v>1.022222626349036</v>
       </c>
       <c r="D20">
-        <v>0.9985924125054046</v>
+        <v>1.027332561574419</v>
       </c>
       <c r="E20">
-        <v>0.995612597732199</v>
+        <v>1.046333231292115</v>
       </c>
       <c r="F20">
-        <v>0.9997535215362124</v>
+        <v>1.05090183663086</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037582678479451</v>
+        <v>1.031974697167321</v>
       </c>
       <c r="J20">
-        <v>1.001832545088778</v>
+        <v>1.028512957656965</v>
       </c>
       <c r="K20">
-        <v>1.012660057880551</v>
+        <v>1.030736663357597</v>
       </c>
       <c r="L20">
-        <v>1.009733035538746</v>
+        <v>1.049671064908016</v>
       </c>
       <c r="M20">
-        <v>1.013800706355679</v>
+        <v>1.05422412933432</v>
       </c>
       <c r="N20">
-        <v>1.004348510376223</v>
+        <v>1.013501415453518</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9660023765322016</v>
+        <v>1.020939893235589</v>
       </c>
       <c r="D21">
-        <v>0.9933908584489345</v>
+        <v>1.02639914668977</v>
       </c>
       <c r="E21">
-        <v>0.9888742323048624</v>
+        <v>1.045005416344612</v>
       </c>
       <c r="F21">
-        <v>0.9925924847686158</v>
+        <v>1.049513219116253</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035235866160951</v>
+        <v>1.031675005345541</v>
       </c>
       <c r="J21">
-        <v>0.9969936544584618</v>
+        <v>1.027636005069678</v>
       </c>
       <c r="K21">
-        <v>1.008498534265632</v>
+        <v>1.030015385688058</v>
       </c>
       <c r="L21">
-        <v>1.004069496559383</v>
+        <v>1.048552359154469</v>
       </c>
       <c r="M21">
-        <v>1.007715567019994</v>
+        <v>1.053043781826073</v>
       </c>
       <c r="N21">
-        <v>1.002715433782903</v>
+        <v>1.013207565806641</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9613151980927814</v>
+        <v>1.020132739134134</v>
       </c>
       <c r="D22">
-        <v>0.9900225068591948</v>
+        <v>1.025811460415142</v>
       </c>
       <c r="E22">
-        <v>0.9845209764597694</v>
+        <v>1.0441710296988</v>
       </c>
       <c r="F22">
-        <v>0.9879619479933842</v>
+        <v>1.048640293030103</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033699786002878</v>
+        <v>1.031484450444352</v>
       </c>
       <c r="J22">
-        <v>0.993852476042551</v>
+        <v>1.027083472757157</v>
       </c>
       <c r="K22">
-        <v>1.005794245366801</v>
+        <v>1.029560390327601</v>
       </c>
       <c r="L22">
-        <v>1.000405441441353</v>
+        <v>1.047848843357448</v>
       </c>
       <c r="M22">
-        <v>1.003775713477641</v>
+        <v>1.052301212539918</v>
       </c>
       <c r="N22">
-        <v>1.001655315244462</v>
+        <v>1.013022341781467</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9638141551344396</v>
+        <v>1.020560688970983</v>
       </c>
       <c r="D23">
-        <v>0.9918177879694187</v>
+        <v>1.026123081101879</v>
       </c>
       <c r="E23">
-        <v>0.9868402553042105</v>
+        <v>1.044613310458633</v>
       </c>
       <c r="F23">
-        <v>0.9904293569287508</v>
+        <v>1.049103033764302</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034520023655382</v>
+        <v>1.031585668886206</v>
       </c>
       <c r="J23">
-        <v>0.9955274185290114</v>
+        <v>1.027376490646471</v>
       </c>
       <c r="K23">
-        <v>1.007236482321636</v>
+        <v>1.029801734325769</v>
       </c>
       <c r="L23">
-        <v>1.002358021503937</v>
+        <v>1.048221804237179</v>
       </c>
       <c r="M23">
-        <v>1.005875554735741</v>
+        <v>1.052694904584637</v>
       </c>
       <c r="N23">
-        <v>1.00222058989173</v>
+        <v>1.013120577100412</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9733480233823089</v>
+        <v>1.022244120689646</v>
       </c>
       <c r="D24">
-        <v>0.9986780368243613</v>
+        <v>1.027348196684535</v>
       </c>
       <c r="E24">
-        <v>0.9957236950903539</v>
+        <v>1.046355500258472</v>
       </c>
       <c r="F24">
-        <v>0.9998715192292489</v>
+        <v>1.050925119710948</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037621038152289</v>
+        <v>1.031979685507957</v>
       </c>
       <c r="J24">
-        <v>1.001912076976579</v>
+        <v>1.028527640340455</v>
       </c>
       <c r="K24">
-        <v>1.012728407457573</v>
+        <v>1.030748730303073</v>
       </c>
       <c r="L24">
-        <v>1.009826325928867</v>
+        <v>1.049689817872273</v>
       </c>
       <c r="M24">
-        <v>1.013900891509621</v>
+        <v>1.054243910705193</v>
       </c>
       <c r="N24">
-        <v>1.004375350871042</v>
+        <v>1.013506333950966</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9838427118100658</v>
+        <v>1.024194890830733</v>
       </c>
       <c r="D25">
-        <v>1.006247035064204</v>
+        <v>1.028766359319202</v>
       </c>
       <c r="E25">
-        <v>1.005569832373588</v>
+        <v>1.048379284763158</v>
       </c>
       <c r="F25">
-        <v>1.010319981166809</v>
+        <v>1.053040273434327</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040973878132097</v>
+        <v>1.032427668141756</v>
       </c>
       <c r="J25">
-        <v>1.008926342160008</v>
+        <v>1.029858480130137</v>
       </c>
       <c r="K25">
-        <v>1.01874914176576</v>
+        <v>1.031841158652659</v>
       </c>
       <c r="L25">
-        <v>1.018082294837375</v>
+        <v>1.051392798708372</v>
       </c>
       <c r="M25">
-        <v>1.02276017755597</v>
+        <v>1.056039589226758</v>
       </c>
       <c r="N25">
-        <v>1.00674229874663</v>
+        <v>1.013951950077347</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_170/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_170/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.025748667024775</v>
+        <v>0.9918081926886585</v>
       </c>
       <c r="D2">
-        <v>1.029894664102174</v>
+        <v>1.012001394554606</v>
       </c>
       <c r="E2">
-        <v>1.049995176591597</v>
+        <v>1.013093706231619</v>
       </c>
       <c r="F2">
-        <v>1.054727962127409</v>
+        <v>1.018291136048482</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.032777525602488</v>
+        <v>1.043467289414349</v>
       </c>
       <c r="J2">
-        <v>1.030915954402657</v>
+        <v>1.014236710773938</v>
       </c>
       <c r="K2">
-        <v>1.032707250685951</v>
+        <v>1.023296025085695</v>
       </c>
       <c r="L2">
-        <v>1.052750685033849</v>
+        <v>1.024373589752707</v>
       </c>
       <c r="M2">
-        <v>1.05747037417289</v>
+        <v>1.029501394617994</v>
       </c>
       <c r="N2">
-        <v>1.014305742470162</v>
+        <v>1.008533739580488</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.026875634722425</v>
+        <v>0.9973802113032588</v>
       </c>
       <c r="D3">
-        <v>1.030712288360634</v>
+        <v>1.016030215012078</v>
       </c>
       <c r="E3">
-        <v>1.051169488970474</v>
+        <v>1.018384749746465</v>
       </c>
       <c r="F3">
-        <v>1.055953782723888</v>
+        <v>1.023889451847894</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033027235030032</v>
+        <v>1.045180411786506</v>
       </c>
       <c r="J3">
-        <v>1.03168147338287</v>
+        <v>1.01794255007848</v>
       </c>
       <c r="K3">
-        <v>1.033333090759105</v>
+        <v>1.026462013931382</v>
       </c>
       <c r="L3">
-        <v>1.053736421677713</v>
+        <v>1.028787676648928</v>
       </c>
       <c r="M3">
-        <v>1.058508441888384</v>
+        <v>1.034225521759844</v>
       </c>
       <c r="N3">
-        <v>1.014561686930693</v>
+        <v>1.009783453448557</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.027604309608448</v>
+        <v>1.000894633773226</v>
       </c>
       <c r="D4">
-        <v>1.031240596846466</v>
+        <v>1.018572341729208</v>
       </c>
       <c r="E4">
-        <v>1.051929834866339</v>
+        <v>1.02173450244382</v>
       </c>
       <c r="F4">
-        <v>1.056747170747412</v>
+        <v>1.027430440668816</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03318681678612</v>
+        <v>1.046246116968162</v>
       </c>
       <c r="J4">
-        <v>1.032175756601925</v>
+        <v>1.020275482380087</v>
       </c>
       <c r="K4">
-        <v>1.03373665747303</v>
+        <v>1.028451665657137</v>
       </c>
       <c r="L4">
-        <v>1.054374171086916</v>
+        <v>1.031577501458852</v>
       </c>
       <c r="M4">
-        <v>1.059179775932418</v>
+        <v>1.037208703573593</v>
       </c>
       <c r="N4">
-        <v>1.01472686667787</v>
+        <v>1.010569936705917</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.027910514630509</v>
+        <v>1.002351245518854</v>
       </c>
       <c r="D5">
-        <v>1.031462518553196</v>
+        <v>1.01962613583013</v>
       </c>
       <c r="E5">
-        <v>1.052249602051823</v>
+        <v>1.023125825727121</v>
       </c>
       <c r="F5">
-        <v>1.057080760227404</v>
+        <v>1.028900411716071</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.033253426934924</v>
+        <v>1.046684199444143</v>
       </c>
       <c r="J5">
-        <v>1.032383300433412</v>
+        <v>1.021241291993207</v>
       </c>
       <c r="K5">
-        <v>1.033905983574127</v>
+        <v>1.029274513093449</v>
       </c>
       <c r="L5">
-        <v>1.054642260831451</v>
+        <v>1.032735119885978</v>
       </c>
       <c r="M5">
-        <v>1.059461918373407</v>
+        <v>1.038445931764861</v>
       </c>
       <c r="N5">
-        <v>1.014796204629282</v>
+        <v>1.010895466959897</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.0279619202251</v>
+        <v>1.002594620647118</v>
       </c>
       <c r="D6">
-        <v>1.031499769681203</v>
+        <v>1.019802214417289</v>
       </c>
       <c r="E6">
-        <v>1.052303299307959</v>
+        <v>1.023358465060103</v>
       </c>
       <c r="F6">
-        <v>1.057136774287512</v>
+        <v>1.029146155775933</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03326458304193</v>
+        <v>1.046757181070832</v>
       </c>
       <c r="J6">
-        <v>1.03241813314791</v>
+        <v>1.02140259555802</v>
       </c>
       <c r="K6">
-        <v>1.033934394632577</v>
+        <v>1.029411889433663</v>
       </c>
       <c r="L6">
-        <v>1.05468727312879</v>
+        <v>1.03292861504932</v>
       </c>
       <c r="M6">
-        <v>1.059509286294703</v>
+        <v>1.038652697070291</v>
       </c>
       <c r="N6">
-        <v>1.014807840704758</v>
+        <v>1.010949830978769</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.027608401643584</v>
+        <v>1.000914177816963</v>
       </c>
       <c r="D7">
-        <v>1.031243562879069</v>
+        <v>1.018586480427029</v>
       </c>
       <c r="E7">
-        <v>1.051934107146966</v>
+        <v>1.021753158831504</v>
       </c>
       <c r="F7">
-        <v>1.056751627991679</v>
+        <v>1.027450154731962</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.033187708712441</v>
+        <v>1.046252009313707</v>
       </c>
       <c r="J7">
-        <v>1.032178530805453</v>
+        <v>1.02028844556709</v>
       </c>
       <c r="K7">
-        <v>1.03373892132615</v>
+        <v>1.028462713378422</v>
       </c>
       <c r="L7">
-        <v>1.054377753392982</v>
+        <v>1.031593028577942</v>
       </c>
       <c r="M7">
-        <v>1.059183546271701</v>
+        <v>1.037225300956666</v>
       </c>
       <c r="N7">
-        <v>1.014727793581923</v>
+        <v>1.010574306271108</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.026129645483037</v>
+        <v>0.9937107231325619</v>
       </c>
       <c r="D8">
-        <v>1.030171139245651</v>
+        <v>1.013376738616977</v>
       </c>
       <c r="E8">
-        <v>1.05039194074173</v>
+        <v>1.014897627518615</v>
       </c>
       <c r="F8">
-        <v>1.055142193249132</v>
+        <v>1.020200516053892</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.032862329585144</v>
+        <v>1.044055299958204</v>
       </c>
       <c r="J8">
-        <v>1.031174884731215</v>
+        <v>1.015502950360002</v>
       </c>
       <c r="K8">
-        <v>1.032919045019715</v>
+        <v>1.024378511552877</v>
       </c>
       <c r="L8">
-        <v>1.053083838187737</v>
+        <v>1.02587951250589</v>
       </c>
       <c r="M8">
-        <v>1.05782127025483</v>
+        <v>1.031113637843786</v>
       </c>
       <c r="N8">
-        <v>1.01439232993572</v>
+        <v>1.008960799686274</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.023519622051221</v>
+        <v>0.9802741114122892</v>
       </c>
       <c r="D9">
-        <v>1.028275646822027</v>
+        <v>1.003671492941353</v>
       </c>
       <c r="E9">
-        <v>1.0476781277619</v>
+        <v>1.0022135220771</v>
       </c>
       <c r="F9">
-        <v>1.052307640077705</v>
+        <v>1.006760442649888</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032273672873009</v>
+        <v>1.039841750327086</v>
       </c>
       <c r="J9">
-        <v>1.02939819418326</v>
+        <v>1.006543201394068</v>
       </c>
       <c r="K9">
-        <v>1.031463630053278</v>
+        <v>1.016705282269839</v>
       </c>
       <c r="L9">
-        <v>1.050803074751453</v>
+        <v>1.015270788226117</v>
       </c>
       <c r="M9">
-        <v>1.055417922092529</v>
+        <v>1.019744780418958</v>
       </c>
       <c r="N9">
-        <v>1.013797873507461</v>
+        <v>1.00593817838412</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.02177664449283</v>
+        <v>0.9707466126829475</v>
       </c>
       <c r="D10">
-        <v>1.02700810791891</v>
+        <v>0.9968045162419122</v>
       </c>
       <c r="E10">
-        <v>1.045871320727614</v>
+        <v>0.9932941446560729</v>
       </c>
       <c r="F10">
-        <v>1.050418848943659</v>
+        <v>0.9972905557872466</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031870943924535</v>
+        <v>1.036779642857938</v>
       </c>
       <c r="J10">
-        <v>1.028208218574993</v>
+        <v>1.000170949754636</v>
       </c>
       <c r="K10">
-        <v>1.030486144125803</v>
+        <v>1.011231706822343</v>
       </c>
       <c r="L10">
-        <v>1.049282017056054</v>
+        <v>1.007785540226704</v>
       </c>
       <c r="M10">
-        <v>1.053813709511066</v>
+        <v>1.011708903014114</v>
       </c>
       <c r="N10">
-        <v>1.013399321658474</v>
+        <v>1.003787746333825</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.021021191636198</v>
+        <v>0.9664683721850256</v>
       </c>
       <c r="D11">
-        <v>1.026458325535395</v>
+        <v>0.9937259740010628</v>
       </c>
       <c r="E11">
-        <v>1.045089505774476</v>
+        <v>0.9893077569540212</v>
       </c>
       <c r="F11">
-        <v>1.049601178475678</v>
+        <v>0.9930534442888286</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031694114868636</v>
+        <v>1.035388009169121</v>
       </c>
       <c r="J11">
-        <v>1.0276916271992</v>
+        <v>0.997305841781536</v>
       </c>
       <c r="K11">
-        <v>1.030061165873886</v>
+        <v>1.0087671871783</v>
       </c>
       <c r="L11">
-        <v>1.048623236890628</v>
+        <v>1.004434170091324</v>
       </c>
       <c r="M11">
-        <v>1.053118581870441</v>
+        <v>1.00810756233949</v>
       </c>
       <c r="N11">
-        <v>1.013226208445077</v>
+        <v>1.002820794994768</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.020740470828007</v>
+        <v>0.9648546207976129</v>
       </c>
       <c r="D12">
-        <v>1.026253971700521</v>
+        <v>0.9925656417045131</v>
       </c>
       <c r="E12">
-        <v>1.044799185105279</v>
+        <v>0.9878070178736633</v>
       </c>
       <c r="F12">
-        <v>1.049297485828632</v>
+        <v>0.9914575946511957</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031628065118462</v>
+        <v>1.034860682374921</v>
       </c>
       <c r="J12">
-        <v>1.027499542202599</v>
+        <v>0.9962246447522545</v>
       </c>
       <c r="K12">
-        <v>1.029903050917875</v>
+        <v>1.007836671871154</v>
       </c>
       <c r="L12">
-        <v>1.048378512340255</v>
+        <v>1.003171604654103</v>
       </c>
       <c r="M12">
-        <v>1.052860304946288</v>
+        <v>1.006750304243849</v>
       </c>
       <c r="N12">
-        <v>1.013161825436644</v>
+        <v>1.002455898255159</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.020800691493811</v>
+        <v>0.9652019187741725</v>
       </c>
       <c r="D13">
-        <v>1.026297812643427</v>
+        <v>0.992815315959186</v>
       </c>
       <c r="E13">
-        <v>1.044861456269848</v>
+        <v>0.9881298604127911</v>
       </c>
       <c r="F13">
-        <v>1.049362627758211</v>
+        <v>0.9918009305035604</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031642249651567</v>
+        <v>1.034974276133444</v>
       </c>
       <c r="J13">
-        <v>1.027540754151599</v>
+        <v>0.9964573511899473</v>
       </c>
       <c r="K13">
-        <v>1.029936978848408</v>
+        <v>1.008036968432647</v>
       </c>
       <c r="L13">
-        <v>1.048431007707721</v>
+        <v>1.003443250787726</v>
       </c>
       <c r="M13">
-        <v>1.052915709667018</v>
+        <v>1.007042347502085</v>
       </c>
       <c r="N13">
-        <v>1.013175639482861</v>
+        <v>1.002534435023825</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.020997989462572</v>
+        <v>0.9663354915193703</v>
       </c>
       <c r="D14">
-        <v>1.026441436446227</v>
+        <v>0.9936304101195624</v>
       </c>
       <c r="E14">
-        <v>1.045065506150182</v>
+        <v>0.9891841220030779</v>
       </c>
       <c r="F14">
-        <v>1.049576074614873</v>
+        <v>0.9929219886421146</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031688662675479</v>
+        <v>1.035344635868563</v>
       </c>
       <c r="J14">
-        <v>1.027675753478543</v>
+        <v>0.9972168223428589</v>
       </c>
       <c r="K14">
-        <v>1.030048101331834</v>
+        <v>1.008690583668318</v>
       </c>
       <c r="L14">
-        <v>1.048603008386099</v>
+        <v>1.004330174558676</v>
       </c>
       <c r="M14">
-        <v>1.053097234169579</v>
+        <v>1.007995777730778</v>
       </c>
       <c r="N14">
-        <v>1.013220888180605</v>
+        <v>1.002790751504136</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.021119536354386</v>
+        <v>0.9670306076737875</v>
       </c>
       <c r="D15">
-        <v>1.026529909220954</v>
+        <v>0.9941303545000356</v>
       </c>
       <c r="E15">
-        <v>1.045191238597897</v>
+        <v>0.9898309923225524</v>
       </c>
       <c r="F15">
-        <v>1.0497075897362</v>
+        <v>0.993609748112773</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031717210557219</v>
+        <v>1.035571430060824</v>
       </c>
       <c r="J15">
-        <v>1.027758904492012</v>
+        <v>0.997682475661046</v>
       </c>
       <c r="K15">
-        <v>1.030116533207276</v>
+        <v>1.009091270684971</v>
       </c>
       <c r="L15">
-        <v>1.048708980423312</v>
+        <v>1.004874253319472</v>
       </c>
       <c r="M15">
-        <v>1.053209067348229</v>
+        <v>1.008580585757152</v>
       </c>
       <c r="N15">
-        <v>1.013248756647928</v>
+        <v>1.002947906520772</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.021826765816939</v>
+        <v>0.9710271877892934</v>
       </c>
       <c r="D16">
-        <v>1.027044575535017</v>
+        <v>0.9970065285159436</v>
       </c>
       <c r="E16">
-        <v>1.045923218546893</v>
+        <v>0.9935559779598272</v>
       </c>
       <c r="F16">
-        <v>1.050473118862571</v>
+        <v>0.9975687582124393</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031882627955581</v>
+        <v>1.036870571535895</v>
       </c>
       <c r="J16">
-        <v>1.028242475058658</v>
+        <v>1.000358778458499</v>
       </c>
       <c r="K16">
-        <v>1.030514312231528</v>
+        <v>1.011393204813368</v>
       </c>
       <c r="L16">
-        <v>1.049325734800516</v>
+        <v>1.008005541093373</v>
       </c>
       <c r="M16">
-        <v>1.053859832328346</v>
+        <v>1.011945241390846</v>
       </c>
       <c r="N16">
-        <v>1.013410799261199</v>
+        <v>1.003851136366801</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.022270194773246</v>
+        <v>0.9734921063798685</v>
       </c>
       <c r="D17">
-        <v>1.027367162863909</v>
+        <v>0.998781838139011</v>
       </c>
       <c r="E17">
-        <v>1.046382514874395</v>
+        <v>0.9958583850642723</v>
       </c>
       <c r="F17">
-        <v>1.050953364303269</v>
+        <v>1.000014571862416</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031985735200354</v>
+        <v>1.037667528865433</v>
       </c>
       <c r="J17">
-        <v>1.028545450881064</v>
+        <v>1.002008487125534</v>
       </c>
       <c r="K17">
-        <v>1.030763367456859</v>
+        <v>1.012811259910702</v>
       </c>
       <c r="L17">
-        <v>1.049712566802319</v>
+        <v>1.009939423584372</v>
       </c>
       <c r="M17">
-        <v>1.054267906960009</v>
+        <v>1.014022345586005</v>
       </c>
       <c r="N17">
-        <v>1.013512300175492</v>
+        <v>1.004407887406867</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.022528768881379</v>
+        <v>0.9749152325924828</v>
       </c>
       <c r="D18">
-        <v>1.027555232929695</v>
+        <v>0.9998072807953891</v>
       </c>
       <c r="E18">
-        <v>1.04665046728594</v>
+        <v>0.9971894506505227</v>
       </c>
       <c r="F18">
-        <v>1.051233501655056</v>
+        <v>1.001428101608103</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032045640045894</v>
+        <v>1.038126078414508</v>
       </c>
       <c r="J18">
-        <v>1.028722043866996</v>
+        <v>1.002960595097382</v>
       </c>
       <c r="K18">
-        <v>1.030908471206584</v>
+        <v>1.013629341653178</v>
       </c>
       <c r="L18">
-        <v>1.049938184779075</v>
+        <v>1.011056874833637</v>
       </c>
       <c r="M18">
-        <v>1.054505882521568</v>
+        <v>1.015222229606531</v>
       </c>
       <c r="N18">
-        <v>1.013571452086743</v>
+        <v>1.004729201970619</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.022616924072618</v>
+        <v>0.975398050325629</v>
       </c>
       <c r="D19">
-        <v>1.027619344768335</v>
+        <v>1.000155252858598</v>
       </c>
       <c r="E19">
-        <v>1.046741841109368</v>
+        <v>0.9976413319850734</v>
       </c>
       <c r="F19">
-        <v>1.051329024411866</v>
+        <v>1.001907904123603</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032066026051222</v>
+        <v>1.038281378533495</v>
       </c>
       <c r="J19">
-        <v>1.028782235885144</v>
+        <v>1.003283550128768</v>
       </c>
       <c r="K19">
-        <v>1.030957919706844</v>
+        <v>1.013906777930594</v>
       </c>
       <c r="L19">
-        <v>1.050015112247455</v>
+        <v>1.011436140911675</v>
       </c>
       <c r="M19">
-        <v>1.054587018032483</v>
+        <v>1.01562941863951</v>
       </c>
       <c r="N19">
-        <v>1.013591612572846</v>
+        <v>1.004838190410553</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.022222626349036</v>
+        <v>0.9732291676216619</v>
       </c>
       <c r="D20">
-        <v>1.027332561574419</v>
+        <v>0.9985924125054041</v>
       </c>
       <c r="E20">
-        <v>1.046333231292115</v>
+        <v>0.9956125977321989</v>
       </c>
       <c r="F20">
-        <v>1.05090183663086</v>
+        <v>0.999753521536212</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031974697167321</v>
+        <v>1.03758267847945</v>
       </c>
       <c r="J20">
-        <v>1.028512957656965</v>
+        <v>1.001832545088777</v>
       </c>
       <c r="K20">
-        <v>1.030736663357597</v>
+        <v>1.01266005788055</v>
       </c>
       <c r="L20">
-        <v>1.049671064908016</v>
+        <v>1.009733035538746</v>
       </c>
       <c r="M20">
-        <v>1.05422412933432</v>
+        <v>1.013800706355678</v>
       </c>
       <c r="N20">
-        <v>1.013501415453518</v>
+        <v>1.004348510376223</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.020939893235589</v>
+        <v>0.9660023765322016</v>
       </c>
       <c r="D21">
-        <v>1.02639914668977</v>
+        <v>0.9933908584489345</v>
       </c>
       <c r="E21">
-        <v>1.045005416344612</v>
+        <v>0.9888742323048629</v>
       </c>
       <c r="F21">
-        <v>1.049513219116253</v>
+        <v>0.9925924847686167</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031675005345541</v>
+        <v>1.035235866160951</v>
       </c>
       <c r="J21">
-        <v>1.027636005069678</v>
+        <v>0.9969936544584619</v>
       </c>
       <c r="K21">
-        <v>1.030015385688058</v>
+        <v>1.008498534265632</v>
       </c>
       <c r="L21">
-        <v>1.048552359154469</v>
+        <v>1.004069496559384</v>
       </c>
       <c r="M21">
-        <v>1.053043781826073</v>
+        <v>1.007715567019995</v>
       </c>
       <c r="N21">
-        <v>1.013207565806641</v>
+        <v>1.002715433782903</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.020132739134134</v>
+        <v>0.9613151980927821</v>
       </c>
       <c r="D22">
-        <v>1.025811460415142</v>
+        <v>0.9900225068591954</v>
       </c>
       <c r="E22">
-        <v>1.0441710296988</v>
+        <v>0.9845209764597699</v>
       </c>
       <c r="F22">
-        <v>1.048640293030103</v>
+        <v>0.9879619479933847</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031484450444352</v>
+        <v>1.033699786002878</v>
       </c>
       <c r="J22">
-        <v>1.027083472757157</v>
+        <v>0.9938524760425517</v>
       </c>
       <c r="K22">
-        <v>1.029560390327601</v>
+        <v>1.005794245366801</v>
       </c>
       <c r="L22">
-        <v>1.047848843357448</v>
+        <v>1.000405441441354</v>
       </c>
       <c r="M22">
-        <v>1.052301212539918</v>
+        <v>1.003775713477641</v>
       </c>
       <c r="N22">
-        <v>1.013022341781467</v>
+        <v>1.001655315244462</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.020560688970983</v>
+        <v>0.9638141551344395</v>
       </c>
       <c r="D23">
-        <v>1.026123081101879</v>
+        <v>0.9918177879694187</v>
       </c>
       <c r="E23">
-        <v>1.044613310458633</v>
+        <v>0.9868402553042105</v>
       </c>
       <c r="F23">
-        <v>1.049103033764302</v>
+        <v>0.990429356928751</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031585668886206</v>
+        <v>1.034520023655382</v>
       </c>
       <c r="J23">
-        <v>1.027376490646471</v>
+        <v>0.9955274185290114</v>
       </c>
       <c r="K23">
-        <v>1.029801734325769</v>
+        <v>1.007236482321636</v>
       </c>
       <c r="L23">
-        <v>1.048221804237179</v>
+        <v>1.002358021503937</v>
       </c>
       <c r="M23">
-        <v>1.052694904584637</v>
+        <v>1.005875554735741</v>
       </c>
       <c r="N23">
-        <v>1.013120577100412</v>
+        <v>1.00222058989173</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.022244120689646</v>
+        <v>0.973348023382308</v>
       </c>
       <c r="D24">
-        <v>1.027348196684535</v>
+        <v>0.9986780368243607</v>
       </c>
       <c r="E24">
-        <v>1.046355500258472</v>
+        <v>0.9957236950903536</v>
       </c>
       <c r="F24">
-        <v>1.050925119710948</v>
+        <v>0.9998715192292483</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031979685507957</v>
+        <v>1.037621038152289</v>
       </c>
       <c r="J24">
-        <v>1.028527640340455</v>
+        <v>1.001912076976579</v>
       </c>
       <c r="K24">
-        <v>1.030748730303073</v>
+        <v>1.012728407457572</v>
       </c>
       <c r="L24">
-        <v>1.049689817872273</v>
+        <v>1.009826325928867</v>
       </c>
       <c r="M24">
-        <v>1.054243910705193</v>
+        <v>1.01390089150962</v>
       </c>
       <c r="N24">
-        <v>1.013506333950966</v>
+        <v>1.004375350871042</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.024194890830733</v>
+        <v>0.9838427118100666</v>
       </c>
       <c r="D25">
-        <v>1.028766359319202</v>
+        <v>1.006247035064204</v>
       </c>
       <c r="E25">
-        <v>1.048379284763158</v>
+        <v>1.005569832373589</v>
       </c>
       <c r="F25">
-        <v>1.053040273434327</v>
+        <v>1.01031998116681</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032427668141756</v>
+        <v>1.040973878132097</v>
       </c>
       <c r="J25">
-        <v>1.029858480130137</v>
+        <v>1.008926342160009</v>
       </c>
       <c r="K25">
-        <v>1.031841158652659</v>
+        <v>1.018749141765761</v>
       </c>
       <c r="L25">
-        <v>1.051392798708372</v>
+        <v>1.018082294837376</v>
       </c>
       <c r="M25">
-        <v>1.056039589226758</v>
+        <v>1.022760177555971</v>
       </c>
       <c r="N25">
-        <v>1.013951950077347</v>
+        <v>1.00674229874663</v>
       </c>
     </row>
   </sheetData>
